--- a/biology/Botanique/Louis_Sauvage/Louis_Sauvage.xlsx
+++ b/biology/Botanique/Louis_Sauvage/Louis_Sauvage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Louis Sauvage' est un cultivar de rosier-liane obtenu en France en 1914 par Eugène Turbat[1]. Il s'agit d'un hybride de Rosa wichuraiana x Rosa multiflora[2].
+'Louis Sauvage' est un cultivar de rosier-liane obtenu en France en 1914 par Eugène Turbat. Il s'agit d'un hybride de Rosa wichuraiana x Rosa multiflora.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Louis Sauvage' est un rosier-liane qui dépasse les 5 mètres ou formant un très haut buisson presque inerme. Ses fleurs doubles (17 à 25 pétales) sont d'un rose pourpre virant au mauve. Non remontant, ce rosier fleurit longtemps[3] en grappes abondamment à la fin du printemps et au début de l'été[4]. 
-Sa zone de rusticité est de 6b à 9b ; ce rosier résiste donc aux hivers froids[2]. On peut l'admirer à Orléans à la roseraie Jean-Dupont, conservatoire des roses orléanaises, ou encore en Normandie à la roseraie de Notre-Dame-de-Bondeville[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Louis Sauvage' est un rosier-liane qui dépasse les 5 mètres ou formant un très haut buisson presque inerme. Ses fleurs doubles (17 à 25 pétales) sont d'un rose pourpre virant au mauve. Non remontant, ce rosier fleurit longtemps en grappes abondamment à la fin du printemps et au début de l'été. 
+Sa zone de rusticité est de 6b à 9b ; ce rosier résiste donc aux hivers froids. On peut l'admirer à Orléans à la roseraie Jean-Dupont, conservatoire des roses orléanaises, ou encore en Normandie à la roseraie de Notre-Dame-de-Bondeville. 
 Il est très résistant aux maladies.
 </t>
         </is>
